--- a/materials/sentiment.xlsx
+++ b/materials/sentiment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musta\Downloads\promptEngineering\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D1F9A-6FE8-49DA-A267-E1DE42975D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB837847-3972-42B2-B6AB-936A562308D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Review</t>
   </si>
@@ -33,21 +33,12 @@
     <t>The course was incredibly insightful and the instructor was clearly very knowledgeable. However, the pacing was a bit too fast for me, and I often found myself scrambling to keep up. The materials were well-organized, but I wish there were more opportunities for hands-on practice.</t>
   </si>
   <si>
-    <t>Neutral</t>
-  </si>
-  <si>
     <t>I absolutely loved the course! The content was engaging and I learned so much more than I expected. The professor was passionate and the materials were very well-prepared and structured, facilitating a seamless learning experience.</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>Honestly, I didn’t learn anything new in this course. The information presented was quite basic and things I had already learned in previous studies. Moreover, the lectures were monotonous and didn’t encourage active participation.</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
     <t>The course was okay. Some lectures were interesting while others seemed to drag on without much direction. I appreciate the effort put into the course design, but it could certainly benefit from a bit more coherence and engagement.</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
   </si>
   <si>
     <t>I struggled to find value in this course. The materials were disorganized and the instructor often seemed unprepared, which made it difficult to follow along and grasp the concepts being discussed. Unfortunately, I cannot recommend this course to others.</t>
-  </si>
-  <si>
-    <t>Truth</t>
   </si>
 </sst>
 </file>
@@ -387,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,125 +386,92 @@
     <col min="2" max="2" width="88.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/materials/sentiment.xlsx
+++ b/materials/sentiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musta\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Dropbox\Projects\promptEngineering\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D1F9A-6FE8-49DA-A267-E1DE42975D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F018544-CFCC-4AE5-9E86-457C15416DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
-  <si>
-    <t>Review</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>The course was incredibly insightful and the instructor was clearly very knowledgeable. However, the pacing was a bit too fast for me, and I often found myself scrambling to keep up. The materials were well-organized, but I wish there were more opportunities for hands-on practice.</t>
   </si>
   <si>
-    <t>Neutral</t>
-  </si>
-  <si>
     <t>I absolutely loved the course! The content was engaging and I learned so much more than I expected. The professor was passionate and the materials were very well-prepared and structured, facilitating a seamless learning experience.</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
     <t>Honestly, I didn’t learn anything new in this course. The information presented was quite basic and things I had already learned in previous studies. Moreover, the lectures were monotonous and didn’t encourage active participation.</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
     <t>The course was okay. Some lectures were interesting while others seemed to drag on without much direction. I appreciate the effort put into the course design, but it could certainly benefit from a bit more coherence and engagement.</t>
   </si>
   <si>
@@ -69,7 +57,13 @@
     <t>I struggled to find value in this course. The materials were disorganized and the instructor often seemed unprepared, which made it difficult to follow along and grasp the concepts being discussed. Unfortunately, I cannot recommend this course to others.</t>
   </si>
   <si>
-    <t>Truth</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Student Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -390,7 +384,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,124 +393,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
